--- a/resultados/Matrizes de Transição.xlsx
+++ b/resultados/Matrizes de Transição.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8dffaa0cd82b602/Documentos/Progamacao/R/Dados PNADC 2019-2020 - PIBIC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8dffaa0cd82b602/Documentos/Progamacao/R/Dados PNADC 2019-2020 - PIBIC/Git/IHPOJ/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="355" documentId="8_{8B5E2424-CC3C-4C3B-91F1-99B01F86C9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121F9591-4038-4563-8E03-7A1C91A3EE06}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="8_{8B5E2424-CC3C-4C3B-91F1-99B01F86C9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B97FA5B-1E09-4A8E-BD64-DCA227D906CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3559914F-9E66-4E6A-A04F-3ECA189E0862}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F302EF2-8182-4C75-9102-CE17C7845DA8}">
   <dimension ref="B1:AE20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="61" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17:AE17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +789,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="J5:AE5" si="1">1-J5</f>
+        <f t="shared" ref="K5:AE5" si="1">1-J5</f>
         <v>0.91100000000000003</v>
       </c>
       <c r="L5" s="1">
@@ -1019,7 +1019,7 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="F11:AE11" si="2">1-F11</f>
+        <f t="shared" ref="G11:AE11" si="2">1-F11</f>
         <v>0.23099999999999998</v>
       </c>
       <c r="H11" s="1">
@@ -1125,7 +1125,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="F12:AE12" si="3">1-F12</f>
+        <f t="shared" ref="G12:AE12" si="3">1-F12</f>
         <v>0.95199999999999996</v>
       </c>
       <c r="H12" s="1">
@@ -1369,7 +1369,7 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ref="F18:AE18" si="4">1-F18</f>
+        <f t="shared" ref="G18:AE18" si="4">1-F18</f>
         <v>0.5</v>
       </c>
       <c r="H18" s="1">
@@ -1475,7 +1475,7 @@
         <v>0.05</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="F19:AE19" si="5">1-F19</f>
+        <f t="shared" ref="G19:AE19" si="5">1-F19</f>
         <v>0.95</v>
       </c>
       <c r="H19" s="1">
@@ -1570,18 +1570,41 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="V9:AA9"/>
     <mergeCell ref="H16:O16"/>
     <mergeCell ref="P16:U16"/>
     <mergeCell ref="V16:AA16"/>
@@ -1598,41 +1621,18 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="V9:AA9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
